--- a/VersionRecords/Version 5.1.8.1 20161216/版本Bug和特性计划及评审表v5.1.8_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.8.1 20161216/版本Bug和特性计划及评审表v5.1.8_马丁组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.8.1 20161216\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="123">
   <si>
     <t>No</t>
   </si>
@@ -323,10 +323,6 @@
   </si>
   <si>
     <t>朱和芳</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置中心Bug修改</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -446,6 +442,17 @@
   </si>
   <si>
     <t>房东PC定时器BS</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>配置中心Bug修改</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1503,7 +1510,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1637,9 +1644,15 @@
       <c r="N2" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="62"/>
+      <c r="O2" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q2" s="77" t="s">
+        <v>122</v>
+      </c>
       <c r="R2" s="59"/>
       <c r="S2" s="59"/>
       <c r="T2" s="67"/>
@@ -1687,9 +1700,15 @@
       <c r="N3" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="62"/>
+      <c r="O3" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q3" s="77" t="s">
+        <v>122</v>
+      </c>
       <c r="R3" s="59"/>
       <c r="S3" s="59"/>
       <c r="T3" s="67"/>
@@ -1713,7 +1732,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>89</v>
@@ -1735,11 +1754,17 @@
         <v>83</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="62"/>
+        <v>96</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q4" s="77" t="s">
+        <v>122</v>
+      </c>
       <c r="R4" s="59"/>
       <c r="S4" s="59"/>
       <c r="T4" s="67"/>
@@ -1757,10 +1782,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="53" t="s">
         <v>93</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>94</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>85</v>
@@ -1779,7 +1804,7 @@
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>83</v>
@@ -1787,10 +1812,18 @@
       <c r="N5" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="62"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="59"/>
+      <c r="O5" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q5" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="R5" s="59">
+        <v>6585</v>
+      </c>
       <c r="S5" s="59"/>
       <c r="T5" s="67"/>
       <c r="U5" s="70"/>
@@ -1807,13 +1840,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="53" t="s">
         <v>89</v>
@@ -1829,7 +1862,7 @@
       </c>
       <c r="K6" s="53"/>
       <c r="L6" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6" s="53" t="s">
         <v>83</v>
@@ -1837,9 +1870,15 @@
       <c r="N6" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="62"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="62"/>
+      <c r="O6" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="P6" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q6" s="77" t="s">
+        <v>122</v>
+      </c>
       <c r="R6" s="59"/>
       <c r="S6" s="59"/>
       <c r="T6" s="67"/>
@@ -1857,13 +1896,13 @@
         <v>22</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="53" t="s">
         <v>89</v>
@@ -1879,17 +1918,23 @@
       </c>
       <c r="K7" s="53"/>
       <c r="L7" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7" s="53" t="s">
         <v>83</v>
       </c>
       <c r="N7" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="62"/>
+        <v>101</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q7" s="77" t="s">
+        <v>122</v>
+      </c>
       <c r="R7" s="59"/>
       <c r="S7" s="59"/>
       <c r="T7" s="67"/>
@@ -1907,13 +1952,13 @@
         <v>22</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="53" t="s">
         <v>89</v>
@@ -1929,7 +1974,7 @@
       </c>
       <c r="K8" s="53"/>
       <c r="L8" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M8" s="53" t="s">
         <v>83</v>
@@ -1937,9 +1982,15 @@
       <c r="N8" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="62"/>
+      <c r="O8" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="54">
+        <v>42720</v>
+      </c>
+      <c r="Q8" s="77" t="s">
+        <v>122</v>
+      </c>
       <c r="R8" s="59"/>
       <c r="S8" s="59"/>
       <c r="T8" s="67"/>
@@ -1957,13 +2008,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="53" t="s">
         <v>89</v>
@@ -1979,7 +2030,7 @@
       </c>
       <c r="K9" s="53"/>
       <c r="L9" s="77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M9" s="53" t="s">
         <v>83</v>
@@ -1987,8 +2038,12 @@
       <c r="N9" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="54"/>
+      <c r="O9" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="P9" s="54">
+        <v>42720</v>
+      </c>
       <c r="Q9" s="62"/>
       <c r="R9" s="71"/>
       <c r="S9" s="71"/>
@@ -6748,37 +6803,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="D4" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="E4" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="G4" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="79" t="s">
         <v>114</v>
-      </c>
-      <c r="J4" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="79" t="s">
-        <v>115</v>
       </c>
       <c r="M4" s="11"/>
     </row>
@@ -7086,37 +7141,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="D4" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="E4" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="G4" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="79" t="s">
         <v>114</v>
-      </c>
-      <c r="J4" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="79" t="s">
-        <v>115</v>
       </c>
       <c r="M4" s="11"/>
     </row>
